--- a/fuentes/contenidos/grado06/guion04/SolicitudGrafica_CN_06_04_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion04/SolicitudGrafica_CN_06_04_CO.xlsx
@@ -580,9 +580,6 @@
     <t>Nutrición de los seres vivos</t>
   </si>
   <si>
-    <t>http://aulaplaneta.planetasaber.com/encyclopedia/default.asp?idpack=11&amp;idpil=0010AH01&amp;ruta=Buscador</t>
-  </si>
-  <si>
     <t>Seres vivos intercambio de energía entre sí y con el medio en cadena trófica</t>
   </si>
   <si>
@@ -691,6 +688,12 @@
   </si>
   <si>
     <t>Respiración en peces</t>
+  </si>
+  <si>
+    <t>Fitoplancton 271039148
+Zooplancton 172081886
+Tiburón 68270977
+Atún, caballa y arenque 62792491</t>
   </si>
 </sst>
 </file>
@@ -1633,6 +1636,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1716,16 +1729,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -2714,7 +2717,7 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2752,14 +2755,14 @@
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="F2" s="78" t="s">
+      <c r="D2" s="90"/>
+      <c r="F2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="79"/>
+      <c r="G2" s="83"/>
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="16"/>
@@ -2769,14 +2772,14 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="87">
+      <c r="C3" s="91">
         <v>6</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="F3" s="80">
+      <c r="D3" s="92"/>
+      <c r="F3" s="84">
         <v>42123</v>
       </c>
-      <c r="G3" s="81"/>
+      <c r="G3" s="85"/>
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="16"/>
@@ -2786,10 +2789,10 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="D4" s="88"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="5"/>
       <c r="F4" s="47" t="s">
         <v>55</v>
@@ -2807,10 +2810,10 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="93" t="s">
         <v>168</v>
       </c>
-      <c r="D5" s="90"/>
+      <c r="D5" s="94"/>
       <c r="E5" s="5"/>
       <c r="F5" s="45" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2859,12 +2862,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="82" t="s">
+      <c r="F8" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="84"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -2912,8 +2915,8 @@
       <c r="A10" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="109" t="s">
-        <v>170</v>
+      <c r="B10" s="78" t="s">
+        <v>205</v>
       </c>
       <c r="C10" s="27" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -2942,16 +2945,16 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="K10" s="110"/>
+        <v>170</v>
+      </c>
+      <c r="K10" s="79"/>
     </row>
     <row r="11" spans="1:16" s="12" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>148</v>
       </c>
       <c r="B11" s="72" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C11" s="27" t="str">
         <f t="shared" ref="C11:C74" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -2980,10 +2983,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J11" s="73" t="s">
+        <v>172</v>
+      </c>
+      <c r="K11" s="80" t="s">
         <v>173</v>
-      </c>
-      <c r="K11" s="111" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -2991,7 +2994,7 @@
         <v>150</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C12" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3020,10 +3023,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J12" s="73" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K12" s="73" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
@@ -3031,7 +3034,7 @@
         <v>151</v>
       </c>
       <c r="B13" s="74" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C13" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3060,10 +3063,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J13" s="73" t="s">
+        <v>178</v>
+      </c>
+      <c r="K13" s="73" t="s">
         <v>179</v>
-      </c>
-      <c r="K13" s="73" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3100,7 +3103,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J14" s="73" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K14" s="19"/>
     </row>
@@ -3109,7 +3112,7 @@
         <v>153</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C15" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3138,7 +3141,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J15" s="75" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K15" s="21"/>
     </row>
@@ -3147,7 +3150,7 @@
         <v>154</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C16" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3176,10 +3179,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J16" s="76" t="s">
+        <v>184</v>
+      </c>
+      <c r="K16" s="81" t="s">
         <v>185</v>
-      </c>
-      <c r="K16" s="112" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3216,7 +3219,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J17" s="75" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K17" s="21"/>
     </row>
@@ -3254,18 +3257,18 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J18" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="K18" s="75" t="s">
         <v>188</v>
-      </c>
-      <c r="K18" s="75" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="12" customFormat="1" ht="111" x14ac:dyDescent="0.3">
       <c r="A19" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="B19" s="109" t="s">
-        <v>190</v>
+      <c r="B19" s="78" t="s">
+        <v>189</v>
       </c>
       <c r="C19" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3294,7 +3297,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J19" s="76" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K19" s="29"/>
     </row>
@@ -3332,7 +3335,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J20" s="73" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K20" s="21"/>
     </row>
@@ -3370,7 +3373,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J21" s="75" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K21" s="21"/>
     </row>
@@ -3378,8 +3381,8 @@
       <c r="A22" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="B22" s="109" t="s">
-        <v>194</v>
+      <c r="B22" s="78" t="s">
+        <v>193</v>
       </c>
       <c r="C22" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3408,7 +3411,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J22" s="77" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K22" s="20"/>
     </row>
@@ -3416,8 +3419,8 @@
       <c r="A23" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="B23" s="109" t="s">
-        <v>196</v>
+      <c r="B23" s="78" t="s">
+        <v>195</v>
       </c>
       <c r="C23" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3446,7 +3449,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J23" s="73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K23" s="73"/>
     </row>
@@ -3454,8 +3457,8 @@
       <c r="A24" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="B24" s="109" t="s">
-        <v>198</v>
+      <c r="B24" s="78" t="s">
+        <v>197</v>
       </c>
       <c r="C24" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3484,7 +3487,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J24" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K24" s="15"/>
     </row>
@@ -3522,7 +3525,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J25" s="77" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K25" s="19"/>
     </row>
@@ -3530,8 +3533,8 @@
       <c r="A26" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="B26" s="109" t="s">
-        <v>201</v>
+      <c r="B26" s="78" t="s">
+        <v>200</v>
       </c>
       <c r="C26" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3560,7 +3563,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J26" s="77" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K26" s="19"/>
     </row>
@@ -3598,7 +3601,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J27" s="73" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K27" s="19"/>
     </row>
@@ -3606,8 +3609,8 @@
       <c r="A28" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="B28" s="109" t="s">
-        <v>204</v>
+      <c r="B28" s="78" t="s">
+        <v>203</v>
       </c>
       <c r="C28" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3636,7 +3639,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J28" s="73" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K28" s="73"/>
     </row>
@@ -6172,25 +6175,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="39"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="102"/>
       <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -6198,11 +6201,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="39"/>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="40"/>
       <c r="H3" s="30" t="s">
         <v>18</v>
@@ -6253,11 +6256,11 @@
       <c r="C5" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="105" t="str">
+      <c r="D5" s="109" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="106"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="40"/>
       <c r="H5" s="30" t="s">
         <v>22</v>
@@ -6302,12 +6305,12 @@
       <c r="C7" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="91" t="str">
+      <c r="D7" s="95" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="92"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="96"/>
       <c r="H7" s="30" t="s">
         <v>24</v>
       </c>
@@ -6401,14 +6404,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="95"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
       <c r="I13" s="30" t="s">
         <v>33</v>
       </c>
@@ -6441,12 +6444,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="39"/>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="98"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="102"/>
       <c r="J15" s="30">
         <v>12</v>
       </c>
@@ -6486,12 +6489,12 @@
       <c r="C17" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="99" t="str">
+      <c r="D17" s="103" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="100"/>
-      <c r="F17" s="101"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="105"/>
       <c r="J17" s="30">
         <v>14</v>
       </c>
@@ -6507,12 +6510,12 @@
       <c r="C18" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="91" t="str">
+      <c r="D18" s="95" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="92"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="96"/>
       <c r="J18" s="30">
         <v>15</v>
       </c>
@@ -6904,41 +6907,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="107" t="s">
+      <c r="E1" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="107" t="s">
+      <c r="F1" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="108" t="s">
+      <c r="H1" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="49" t="s">
         <v>65</v>
       </c>

--- a/fuentes/contenidos/grado06/guion04/SolicitudGrafica_CN_06_04_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion04/SolicitudGrafica_CN_06_04_CO.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="208">
   <si>
     <t>Fecha:</t>
   </si>
@@ -654,13 +654,7 @@
     <t>Yogurt</t>
   </si>
   <si>
-    <t>http://reproduccionasexual.galeon.com/images/pagina1.gif</t>
-  </si>
-  <si>
     <t>“sistema digestivo” en protozoos, peristoma…</t>
-  </si>
-  <si>
-    <t>http://image.slidesharecdn.com/deuteromicetes-130213124457-phpapp02/95/deuteromicetes-1-638.jpg?cb=1360781133</t>
   </si>
   <si>
     <t>Hongos</t>
@@ -694,6 +688,23 @@
 Zooplancton 172081886
 Tiburón 68270977
 Atún, caballa y arenque 62792491</t>
+  </si>
+  <si>
+    <t>Reañizar la traducción de los términos teniendo como referencia la siguiente ilustración: http://reproduccionasexual.galeon.com/images/pagina1.gif</t>
+  </si>
+  <si>
+    <t>mandarina  246287323
+ scientific illustration - aspergillus mold  Número de la imagen 187257827
+hoja  201849010
+ penicillium   Número de la imagen 204837403
+diseases on leaves          Número de la imagen 227379823
+Fungal infections on a green leaf of Polygonatum    Número de la imagen 216783403</t>
+  </si>
+  <si>
+    <t>Ilustración</t>
+  </si>
+  <si>
+    <t>Elaborar ilustración a modo de mosaico, incluyendo las imágenes propuestas.</t>
   </si>
 </sst>
 </file>
@@ -1429,7 +1440,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1472,9 +1483,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1644,6 +1652,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="51" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1729,6 +1740,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -2716,8 +2730,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2745,8 +2759,8 @@
       <c r="D1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
@@ -2763,8 +2777,8 @@
         <v>0</v>
       </c>
       <c r="G2" s="83"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -2780,8 +2794,8 @@
         <v>42123</v>
       </c>
       <c r="G3" s="85"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
@@ -2794,14 +2808,14 @@
       </c>
       <c r="D4" s="92"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
@@ -2815,13 +2829,13 @@
       </c>
       <c r="D5" s="94"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="45" t="str">
+      <c r="F5" s="44" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
         <v/>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="69"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="68"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
@@ -2833,20 +2847,20 @@
       <c r="E6" s="7"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="30" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="1"/>
@@ -2877,37 +2891,37 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="68" t="s">
+      <c r="G9" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="68" t="s">
+      <c r="H9" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="68" t="s">
+      <c r="I9" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="25" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2915,10 +2929,10 @@
       <c r="A10" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="78" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10" s="27" t="str">
+      <c r="B10" s="77" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="26" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
@@ -2947,16 +2961,16 @@
       <c r="J10" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="K10" s="79"/>
+      <c r="K10" s="78"/>
     </row>
     <row r="11" spans="1:16" s="12" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="C11" s="27" t="str">
+      <c r="C11" s="26" t="str">
         <f t="shared" ref="C11:C74" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
@@ -2982,21 +2996,21 @@
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J11" s="73" t="s">
+      <c r="J11" s="72" t="s">
         <v>172</v>
       </c>
-      <c r="K11" s="80" t="s">
+      <c r="K11" s="79" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="27" t="str">
+      <c r="C12" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
@@ -3022,21 +3036,21 @@
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J12" s="73" t="s">
+      <c r="J12" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="K12" s="73" t="s">
+      <c r="K12" s="72" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="C13" s="27" t="str">
+      <c r="C13" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
@@ -3062,21 +3076,21 @@
         <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J13" s="73" t="s">
+      <c r="J13" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="K13" s="73" t="s">
+      <c r="K13" s="72" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="73" t="s">
         <v>152</v>
       </c>
       <c r="B14" s="13">
         <v>166005350</v>
       </c>
-      <c r="C14" s="27" t="str">
+      <c r="C14" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
@@ -3102,19 +3116,19 @@
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J14" s="73" t="s">
+      <c r="J14" s="72" t="s">
         <v>180</v>
       </c>
       <c r="K14" s="19"/>
     </row>
     <row r="15" spans="1:16" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="73" t="s">
         <v>181</v>
       </c>
-      <c r="C15" s="27" t="str">
+      <c r="C15" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
@@ -3140,19 +3154,19 @@
         <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J15" s="75" t="s">
+      <c r="J15" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="K15" s="21"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:16" s="12" customFormat="1" ht="201" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="73" t="s">
         <v>183</v>
       </c>
-      <c r="C16" s="27" t="str">
+      <c r="C16" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
@@ -3178,21 +3192,21 @@
         <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J16" s="76" t="s">
+      <c r="J16" s="75" t="s">
         <v>184</v>
       </c>
-      <c r="K16" s="81" t="s">
+      <c r="K16" s="80" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="73" t="s">
         <v>155</v>
       </c>
       <c r="B17" s="13">
         <v>132337199</v>
       </c>
-      <c r="C17" s="27" t="str">
+      <c r="C17" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
@@ -3218,19 +3232,19 @@
         <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J17" s="75" t="s">
+      <c r="J17" s="74" t="s">
         <v>186</v>
       </c>
-      <c r="K17" s="21"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" s="12" customFormat="1" ht="247.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="74">
+      <c r="B18" s="73">
         <v>104022737</v>
       </c>
-      <c r="C18" s="27" t="str">
+      <c r="C18" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
@@ -3256,21 +3270,21 @@
         <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J18" s="75" t="s">
+      <c r="J18" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="K18" s="75" t="s">
+      <c r="K18" s="74" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="12" customFormat="1" ht="111" x14ac:dyDescent="0.3">
-      <c r="A19" s="74" t="s">
+      <c r="A19" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="C19" s="27" t="str">
+      <c r="C19" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
@@ -3296,19 +3310,19 @@
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J19" s="76" t="s">
+      <c r="J19" s="75" t="s">
         <v>190</v>
       </c>
-      <c r="K19" s="29"/>
+      <c r="K19" s="28"/>
     </row>
     <row r="20" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="74">
+      <c r="B20" s="73">
         <v>255673312</v>
       </c>
-      <c r="C20" s="27" t="str">
+      <c r="C20" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
@@ -3334,19 +3348,19 @@
         <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J20" s="73" t="s">
+      <c r="J20" s="72" t="s">
         <v>191</v>
       </c>
-      <c r="K20" s="21"/>
+      <c r="K20" s="20"/>
     </row>
     <row r="21" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="74">
+      <c r="B21" s="73">
         <v>175167698</v>
       </c>
-      <c r="C21" s="27" t="str">
+      <c r="C21" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
@@ -3372,19 +3386,19 @@
         <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J21" s="75" t="s">
+      <c r="J21" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="K21" s="21"/>
-    </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="74" t="s">
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="1:11" s="12" customFormat="1" ht="54" x14ac:dyDescent="0.3">
+      <c r="A22" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="B22" s="78" t="s">
-        <v>193</v>
-      </c>
-      <c r="C22" s="27" t="str">
+      <c r="B22" s="81">
+        <v>264384158</v>
+      </c>
+      <c r="C22" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
@@ -3410,24 +3424,26 @@
         <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J22" s="77" t="s">
-        <v>194</v>
-      </c>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="74" t="s">
+      <c r="J22" s="76" t="s">
+        <v>193</v>
+      </c>
+      <c r="K22" s="113" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="12" customFormat="1" ht="356.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="B23" s="78" t="s">
-        <v>195</v>
-      </c>
-      <c r="C23" s="27" t="str">
+      <c r="B23" s="81" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>149</v>
@@ -3448,19 +3464,21 @@
         <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J23" s="73" t="s">
-        <v>196</v>
-      </c>
-      <c r="K23" s="73"/>
+      <c r="J23" s="72" t="s">
+        <v>194</v>
+      </c>
+      <c r="K23" s="72" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="24" spans="1:11" s="12" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="74" t="s">
+      <c r="A24" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="B24" s="78" t="s">
-        <v>197</v>
-      </c>
-      <c r="C24" s="27" t="str">
+      <c r="B24" s="77" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
@@ -3486,19 +3504,19 @@
         <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J24" s="77" t="s">
-        <v>198</v>
+      <c r="J24" s="76" t="s">
+        <v>196</v>
       </c>
       <c r="K24" s="15"/>
     </row>
     <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="74" t="s">
+      <c r="A25" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="B25" s="74">
+      <c r="B25" s="73">
         <v>91591553</v>
       </c>
-      <c r="C25" s="27" t="str">
+      <c r="C25" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
@@ -3524,19 +3542,19 @@
         <f>IF(OR(B25&lt;&gt;"",J25&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J25" s="77" t="s">
-        <v>199</v>
+      <c r="J25" s="76" t="s">
+        <v>197</v>
       </c>
       <c r="K25" s="19"/>
     </row>
     <row r="26" spans="1:11" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="B26" s="78" t="s">
-        <v>200</v>
-      </c>
-      <c r="C26" s="27" t="str">
+      <c r="B26" s="77" t="s">
+        <v>198</v>
+      </c>
+      <c r="C26" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
@@ -3562,19 +3580,19 @@
         <f>IF(OR(B26&lt;&gt;"",J26&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J26" s="77" t="s">
-        <v>201</v>
+      <c r="J26" s="76" t="s">
+        <v>199</v>
       </c>
       <c r="K26" s="19"/>
     </row>
     <row r="27" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="B27" s="74">
+      <c r="B27" s="73">
         <v>142495639</v>
       </c>
-      <c r="C27" s="27" t="str">
+      <c r="C27" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
@@ -3600,19 +3618,19 @@
         <f>IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J27" s="73" t="s">
-        <v>202</v>
+      <c r="J27" s="72" t="s">
+        <v>200</v>
       </c>
       <c r="K27" s="19"/>
     </row>
     <row r="28" spans="1:11" s="12" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A28" s="74" t="s">
+      <c r="A28" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="B28" s="78" t="s">
-        <v>203</v>
-      </c>
-      <c r="C28" s="27" t="str">
+      <c r="B28" s="77" t="s">
+        <v>201</v>
+      </c>
+      <c r="C28" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
@@ -3638,15 +3656,15 @@
         <f>IF(OR(B28&lt;&gt;"",J28&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J28" s="73" t="s">
-        <v>204</v>
-      </c>
-      <c r="K28" s="73"/>
+      <c r="J28" s="72" t="s">
+        <v>202</v>
+      </c>
+      <c r="K28" s="72"/>
     </row>
     <row r="29" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="74"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="27"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="26"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14" t="str">
@@ -3665,13 +3683,13 @@
         <f>IF(OR(B29&lt;&gt;"",J29&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J29" s="73"/>
+      <c r="J29" s="72"/>
       <c r="K29" s="19"/>
     </row>
     <row r="30" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="74"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="27"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="26"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14" t="str">
@@ -3690,13 +3708,13 @@
         <f>IF(OR(B30&lt;&gt;"",J30&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J30" s="73"/>
+      <c r="J30" s="72"/>
       <c r="K30" s="19"/>
     </row>
     <row r="31" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="74"/>
-      <c r="B31" s="74"/>
-      <c r="C31" s="27"/>
+      <c r="A31" s="73"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14" t="str">
@@ -3715,13 +3733,13 @@
         <f>IF(OR(B31&lt;&gt;"",J31&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J31" s="73"/>
+      <c r="J31" s="72"/>
       <c r="K31" s="19"/>
     </row>
     <row r="32" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="74"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="27"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="26"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14" t="str">
@@ -3740,13 +3758,13 @@
         <f>IF(OR(B32&lt;&gt;"",J32&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J32" s="73"/>
+      <c r="J32" s="72"/>
       <c r="K32" s="19"/>
     </row>
     <row r="33" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="74"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="13"/>
-      <c r="C33" s="27" t="str">
+      <c r="C33" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3777,7 +3795,7 @@
         <v/>
       </c>
       <c r="B34" s="13"/>
-      <c r="C34" s="27" t="str">
+      <c r="C34" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3808,7 +3826,7 @@
         <v/>
       </c>
       <c r="B35" s="13"/>
-      <c r="C35" s="27" t="str">
+      <c r="C35" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3839,7 +3857,7 @@
         <v/>
       </c>
       <c r="B36" s="13"/>
-      <c r="C36" s="27" t="str">
+      <c r="C36" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3870,7 +3888,7 @@
         <v/>
       </c>
       <c r="B37" s="13"/>
-      <c r="C37" s="27" t="str">
+      <c r="C37" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3892,7 +3910,7 @@
         <f>IF(OR(B37&lt;&gt;"",J37&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J37" s="22"/>
+      <c r="J37" s="21"/>
       <c r="K37" s="15"/>
     </row>
     <row r="38" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3901,7 +3919,7 @@
         <v/>
       </c>
       <c r="B38" s="13"/>
-      <c r="C38" s="27" t="str">
+      <c r="C38" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3923,7 +3941,7 @@
         <f>IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J38" s="23"/>
+      <c r="J38" s="22"/>
       <c r="K38" s="15"/>
     </row>
     <row r="39" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3932,7 +3950,7 @@
         <v/>
       </c>
       <c r="B39" s="13"/>
-      <c r="C39" s="27" t="str">
+      <c r="C39" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3963,7 +3981,7 @@
         <v/>
       </c>
       <c r="B40" s="13"/>
-      <c r="C40" s="27" t="str">
+      <c r="C40" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3994,7 +4012,7 @@
         <v/>
       </c>
       <c r="B41" s="13"/>
-      <c r="C41" s="27" t="str">
+      <c r="C41" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4025,7 +4043,7 @@
         <v/>
       </c>
       <c r="B42" s="13"/>
-      <c r="C42" s="27" t="str">
+      <c r="C42" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4056,7 +4074,7 @@
         <v/>
       </c>
       <c r="B43" s="13"/>
-      <c r="C43" s="27" t="str">
+      <c r="C43" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4087,7 +4105,7 @@
         <v/>
       </c>
       <c r="B44" s="13"/>
-      <c r="C44" s="27" t="str">
+      <c r="C44" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4118,7 +4136,7 @@
         <v/>
       </c>
       <c r="B45" s="13"/>
-      <c r="C45" s="27" t="str">
+      <c r="C45" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4149,7 +4167,7 @@
         <v/>
       </c>
       <c r="B46" s="13"/>
-      <c r="C46" s="27" t="str">
+      <c r="C46" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4180,7 +4198,7 @@
         <v/>
       </c>
       <c r="B47" s="13"/>
-      <c r="C47" s="27" t="str">
+      <c r="C47" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4211,7 +4229,7 @@
         <v/>
       </c>
       <c r="B48" s="13"/>
-      <c r="C48" s="27" t="str">
+      <c r="C48" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4242,7 +4260,7 @@
         <v/>
       </c>
       <c r="B49" s="13"/>
-      <c r="C49" s="27" t="str">
+      <c r="C49" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4273,7 +4291,7 @@
         <v/>
       </c>
       <c r="B50" s="13"/>
-      <c r="C50" s="27" t="str">
+      <c r="C50" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4304,7 +4322,7 @@
         <v/>
       </c>
       <c r="B51" s="13"/>
-      <c r="C51" s="27" t="str">
+      <c r="C51" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4335,7 +4353,7 @@
         <v/>
       </c>
       <c r="B52" s="13"/>
-      <c r="C52" s="27" t="str">
+      <c r="C52" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4366,7 +4384,7 @@
         <v/>
       </c>
       <c r="B53" s="13"/>
-      <c r="C53" s="27" t="str">
+      <c r="C53" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4397,7 +4415,7 @@
         <v/>
       </c>
       <c r="B54" s="13"/>
-      <c r="C54" s="27" t="str">
+      <c r="C54" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4428,7 +4446,7 @@
         <v/>
       </c>
       <c r="B55" s="13"/>
-      <c r="C55" s="27" t="str">
+      <c r="C55" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4459,7 +4477,7 @@
         <v/>
       </c>
       <c r="B56" s="13"/>
-      <c r="C56" s="27" t="str">
+      <c r="C56" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4490,7 +4508,7 @@
         <v/>
       </c>
       <c r="B57" s="13"/>
-      <c r="C57" s="27" t="str">
+      <c r="C57" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4521,7 +4539,7 @@
         <v/>
       </c>
       <c r="B58" s="13"/>
-      <c r="C58" s="27" t="str">
+      <c r="C58" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4552,7 +4570,7 @@
         <v/>
       </c>
       <c r="B59" s="13"/>
-      <c r="C59" s="27" t="str">
+      <c r="C59" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4583,7 +4601,7 @@
         <v/>
       </c>
       <c r="B60" s="13"/>
-      <c r="C60" s="27" t="str">
+      <c r="C60" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4614,7 +4632,7 @@
         <v/>
       </c>
       <c r="B61" s="13"/>
-      <c r="C61" s="27" t="str">
+      <c r="C61" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4645,7 +4663,7 @@
         <v/>
       </c>
       <c r="B62" s="13"/>
-      <c r="C62" s="27" t="str">
+      <c r="C62" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4676,7 +4694,7 @@
         <v/>
       </c>
       <c r="B63" s="13"/>
-      <c r="C63" s="27" t="str">
+      <c r="C63" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4707,7 +4725,7 @@
         <v/>
       </c>
       <c r="B64" s="13"/>
-      <c r="C64" s="27" t="str">
+      <c r="C64" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4738,7 +4756,7 @@
         <v/>
       </c>
       <c r="B65" s="13"/>
-      <c r="C65" s="27" t="str">
+      <c r="C65" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4769,7 +4787,7 @@
         <v/>
       </c>
       <c r="B66" s="13"/>
-      <c r="C66" s="27" t="str">
+      <c r="C66" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4800,7 +4818,7 @@
         <v/>
       </c>
       <c r="B67" s="13"/>
-      <c r="C67" s="27" t="str">
+      <c r="C67" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4831,7 +4849,7 @@
         <v/>
       </c>
       <c r="B68" s="13"/>
-      <c r="C68" s="27" t="str">
+      <c r="C68" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4862,7 +4880,7 @@
         <v/>
       </c>
       <c r="B69" s="13"/>
-      <c r="C69" s="27" t="str">
+      <c r="C69" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4893,7 +4911,7 @@
         <v/>
       </c>
       <c r="B70" s="13"/>
-      <c r="C70" s="27" t="str">
+      <c r="C70" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4924,7 +4942,7 @@
         <v/>
       </c>
       <c r="B71" s="13"/>
-      <c r="C71" s="27" t="str">
+      <c r="C71" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4955,7 +4973,7 @@
         <v/>
       </c>
       <c r="B72" s="13"/>
-      <c r="C72" s="27" t="str">
+      <c r="C72" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4986,7 +5004,7 @@
         <v/>
       </c>
       <c r="B73" s="13"/>
-      <c r="C73" s="27" t="str">
+      <c r="C73" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5017,7 +5035,7 @@
         <v/>
       </c>
       <c r="B74" s="13"/>
-      <c r="C74" s="27" t="str">
+      <c r="C74" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5048,7 +5066,7 @@
         <v/>
       </c>
       <c r="B75" s="13"/>
-      <c r="C75" s="27" t="str">
+      <c r="C75" s="26" t="str">
         <f t="shared" ref="C75:C108" si="4">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v/>
       </c>
@@ -5079,7 +5097,7 @@
         <v/>
       </c>
       <c r="B76" s="13"/>
-      <c r="C76" s="27" t="str">
+      <c r="C76" s="26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5110,7 +5128,7 @@
         <v/>
       </c>
       <c r="B77" s="13"/>
-      <c r="C77" s="27" t="str">
+      <c r="C77" s="26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5141,7 +5159,7 @@
         <v/>
       </c>
       <c r="B78" s="13"/>
-      <c r="C78" s="27" t="str">
+      <c r="C78" s="26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5172,7 +5190,7 @@
         <v/>
       </c>
       <c r="B79" s="13"/>
-      <c r="C79" s="27" t="str">
+      <c r="C79" s="26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5203,7 +5221,7 @@
         <v/>
       </c>
       <c r="B80" s="13"/>
-      <c r="C80" s="27" t="str">
+      <c r="C80" s="26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5234,7 +5252,7 @@
         <v/>
       </c>
       <c r="B81" s="13"/>
-      <c r="C81" s="27" t="str">
+      <c r="C81" s="26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5265,7 +5283,7 @@
         <v/>
       </c>
       <c r="B82" s="13"/>
-      <c r="C82" s="27" t="str">
+      <c r="C82" s="26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5296,7 +5314,7 @@
         <v/>
       </c>
       <c r="B83" s="13"/>
-      <c r="C83" s="27" t="str">
+      <c r="C83" s="26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5327,7 +5345,7 @@
         <v/>
       </c>
       <c r="B84" s="13"/>
-      <c r="C84" s="27" t="str">
+      <c r="C84" s="26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5358,7 +5376,7 @@
         <v/>
       </c>
       <c r="B85" s="13"/>
-      <c r="C85" s="27" t="str">
+      <c r="C85" s="26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5389,7 +5407,7 @@
         <v/>
       </c>
       <c r="B86" s="13"/>
-      <c r="C86" s="27" t="str">
+      <c r="C86" s="26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5420,7 +5438,7 @@
         <v/>
       </c>
       <c r="B87" s="13"/>
-      <c r="C87" s="27" t="str">
+      <c r="C87" s="26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5451,7 +5469,7 @@
         <v/>
       </c>
       <c r="B88" s="13"/>
-      <c r="C88" s="27" t="str">
+      <c r="C88" s="26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5482,7 +5500,7 @@
         <v/>
       </c>
       <c r="B89" s="13"/>
-      <c r="C89" s="27" t="str">
+      <c r="C89" s="26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5513,7 +5531,7 @@
         <v/>
       </c>
       <c r="B90" s="13"/>
-      <c r="C90" s="27" t="str">
+      <c r="C90" s="26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5544,7 +5562,7 @@
         <v/>
       </c>
       <c r="B91" s="13"/>
-      <c r="C91" s="27" t="str">
+      <c r="C91" s="26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5575,7 +5593,7 @@
         <v/>
       </c>
       <c r="B92" s="13"/>
-      <c r="C92" s="27" t="str">
+      <c r="C92" s="26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5606,7 +5624,7 @@
         <v/>
       </c>
       <c r="B93" s="13"/>
-      <c r="C93" s="27" t="str">
+      <c r="C93" s="26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5637,7 +5655,7 @@
         <v/>
       </c>
       <c r="B94" s="13"/>
-      <c r="C94" s="27" t="str">
+      <c r="C94" s="26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5668,7 +5686,7 @@
         <v/>
       </c>
       <c r="B95" s="13"/>
-      <c r="C95" s="27" t="str">
+      <c r="C95" s="26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5699,7 +5717,7 @@
         <v/>
       </c>
       <c r="B96" s="13"/>
-      <c r="C96" s="27" t="str">
+      <c r="C96" s="26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5730,7 +5748,7 @@
         <v/>
       </c>
       <c r="B97" s="13"/>
-      <c r="C97" s="27" t="str">
+      <c r="C97" s="26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5761,7 +5779,7 @@
         <v/>
       </c>
       <c r="B98" s="13"/>
-      <c r="C98" s="27" t="str">
+      <c r="C98" s="26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5792,7 +5810,7 @@
         <v/>
       </c>
       <c r="B99" s="13"/>
-      <c r="C99" s="27" t="str">
+      <c r="C99" s="26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5823,7 +5841,7 @@
         <v/>
       </c>
       <c r="B100" s="13"/>
-      <c r="C100" s="27" t="str">
+      <c r="C100" s="26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5854,7 +5872,7 @@
         <v/>
       </c>
       <c r="B101" s="13"/>
-      <c r="C101" s="27" t="str">
+      <c r="C101" s="26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5885,7 +5903,7 @@
         <v/>
       </c>
       <c r="B102" s="13"/>
-      <c r="C102" s="27" t="str">
+      <c r="C102" s="26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5916,7 +5934,7 @@
         <v/>
       </c>
       <c r="B103" s="13"/>
-      <c r="C103" s="27" t="str">
+      <c r="C103" s="26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5947,7 +5965,7 @@
         <v/>
       </c>
       <c r="B104" s="13"/>
-      <c r="C104" s="27" t="str">
+      <c r="C104" s="26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -5978,7 +5996,7 @@
         <v/>
       </c>
       <c r="B105" s="13"/>
-      <c r="C105" s="27" t="str">
+      <c r="C105" s="26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6009,7 +6027,7 @@
         <v/>
       </c>
       <c r="B106" s="13"/>
-      <c r="C106" s="27" t="str">
+      <c r="C106" s="26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6040,7 +6058,7 @@
         <v/>
       </c>
       <c r="B107" s="13"/>
-      <c r="C107" s="27" t="str">
+      <c r="C107" s="26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6071,7 +6089,7 @@
         <v/>
       </c>
       <c r="B108" s="13"/>
-      <c r="C108" s="27" t="str">
+      <c r="C108" s="26" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6143,9 +6161,12 @@
       <formula1>"3,4,5,6,7,8,9,10,11"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B23" r:id="rId1" display="http://image.slidesharecdn.com/deuteromicetes-130213124457-phpapp02/95/deuteromicetes-1-638.jpg?cb=1360781133"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6165,13 +6186,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.25" style="30" customWidth="1"/>
-    <col min="2" max="2" width="11" style="30"/>
-    <col min="3" max="3" width="13.875" style="30" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="30" customWidth="1"/>
-    <col min="5" max="7" width="11" style="30"/>
-    <col min="8" max="11" width="11" style="30" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="30"/>
+    <col min="1" max="1" width="72.25" style="29" customWidth="1"/>
+    <col min="2" max="2" width="11" style="29"/>
+    <col min="3" max="3" width="13.875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="29" customWidth="1"/>
+    <col min="5" max="7" width="11" style="29"/>
+    <col min="8" max="11" width="11" style="29" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6185,75 +6206,75 @@
       <c r="F1" s="99"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="100" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="101"/>
       <c r="E2" s="102"/>
-      <c r="F2" s="40"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="39"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="106" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="107"/>
       <c r="E3" s="108"/>
-      <c r="F3" s="40"/>
-      <c r="H3" s="30" t="s">
+      <c r="F3" s="39"/>
+      <c r="H3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="29" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="34" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="H4" s="30" t="s">
+      <c r="F4" s="39"/>
+      <c r="H4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="29">
         <v>1</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="36" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="35" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="109" t="str">
@@ -6261,48 +6282,48 @@
         <v>LE_07_04_CO</v>
       </c>
       <c r="E5" s="110"/>
-      <c r="F5" s="40"/>
-      <c r="H5" s="30" t="s">
+      <c r="F5" s="39"/>
+      <c r="H5" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="29">
         <v>2</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="H6" s="30" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="H6" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="29">
         <v>3</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="29">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="70" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="69" t="s">
         <v>127</v>
       </c>
       <c r="D7" s="95" t="str">
@@ -6311,95 +6332,95 @@
       </c>
       <c r="E7" s="95"/>
       <c r="F7" s="96"/>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="29">
         <v>4</v>
       </c>
-      <c r="K7" s="30">
+      <c r="K7" s="29">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
-      <c r="I8" s="30" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="I8" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="29">
         <v>5</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-      <c r="I9" s="30" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
+      <c r="I9" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="29">
         <v>6</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="29">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="44"/>
-      <c r="I10" s="30" t="s">
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="43"/>
+      <c r="I10" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="29">
         <v>7</v>
       </c>
-      <c r="K10" s="30">
+      <c r="K10" s="29">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="29">
         <v>8</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="29">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="29">
         <v>9</v>
       </c>
-      <c r="K12" s="30">
+      <c r="K12" s="29">
         <v>9</v>
       </c>
     </row>
@@ -6412,81 +6433,81 @@
       <c r="D13" s="98"/>
       <c r="E13" s="98"/>
       <c r="F13" s="99"/>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="29">
         <v>10</v>
       </c>
-      <c r="K13" s="30">
+      <c r="K13" s="29">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="41"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40"/>
-      <c r="I14" s="30" t="s">
+      <c r="A14" s="40"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="39"/>
+      <c r="I14" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="29">
         <v>11</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="29">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="39"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="100" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="101"/>
       <c r="E15" s="101"/>
       <c r="F15" s="102"/>
-      <c r="J15" s="30">
+      <c r="J15" s="29">
         <v>12</v>
       </c>
-      <c r="K15" s="30">
+      <c r="K15" s="29">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="34" t="s">
+      <c r="B16" s="38"/>
+      <c r="C16" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="29">
         <v>13</v>
       </c>
-      <c r="K16" s="30">
+      <c r="K16" s="29">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="36" t="s">
+      <c r="B17" s="38"/>
+      <c r="C17" s="35" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="103" t="str">
@@ -6495,19 +6516,19 @@
       </c>
       <c r="E17" s="104"/>
       <c r="F17" s="105"/>
-      <c r="J17" s="30">
+      <c r="J17" s="29">
         <v>14</v>
       </c>
-      <c r="K17" s="30">
+      <c r="K17" s="29">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="70" t="s">
+      <c r="B18" s="38"/>
+      <c r="C18" s="69" t="s">
         <v>128</v>
       </c>
       <c r="D18" s="95" t="str">
@@ -6516,188 +6537,188 @@
       </c>
       <c r="E18" s="95"/>
       <c r="F18" s="96"/>
-      <c r="J18" s="30">
+      <c r="J18" s="29">
         <v>15</v>
       </c>
-      <c r="K18" s="30">
+      <c r="K18" s="29">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40"/>
-      <c r="H19" s="30">
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
+      <c r="H19" s="29">
         <v>3</v>
       </c>
-      <c r="J19" s="30">
+      <c r="J19" s="29">
         <v>16</v>
       </c>
-      <c r="K19" s="30">
+      <c r="K19" s="29">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="44"/>
-      <c r="H20" s="30">
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
+      <c r="H20" s="29">
         <v>4</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="29">
         <v>5</v>
       </c>
-      <c r="J20" s="30">
+      <c r="J20" s="29">
         <v>4</v>
       </c>
-      <c r="K20" s="30">
+      <c r="K20" s="29">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H21" s="30" t="str">
+      <c r="H21" s="29" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
       </c>
-      <c r="I21" s="30" t="str">
+      <c r="I21" s="29" t="str">
         <f>CONCATENATE(IF((I20+2)&lt;10,"0",""),I20+2)</f>
         <v>07</v>
       </c>
-      <c r="J21" s="30" t="str">
+      <c r="J21" s="29" t="str">
         <f>CONCATENATE(IF(J20&lt;10,"0",""),J20)</f>
         <v>04</v>
       </c>
-      <c r="K21" s="30">
+      <c r="K21" s="29">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K22" s="30">
+      <c r="K22" s="29">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K23" s="30">
+      <c r="K23" s="29">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K24" s="30">
+      <c r="K24" s="29">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K25" s="30">
+      <c r="K25" s="29">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K26" s="30">
+      <c r="K26" s="29">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K27" s="30">
+      <c r="K27" s="29">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K28" s="30">
+      <c r="K28" s="29">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K29" s="30">
+      <c r="K29" s="29">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K30" s="30">
+      <c r="K30" s="29">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K31" s="30">
+      <c r="K31" s="29">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K32" s="30">
+      <c r="K32" s="29">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K33" s="30">
+      <c r="K33" s="29">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K34" s="30">
+      <c r="K34" s="29">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K35" s="30">
+      <c r="K35" s="29">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K36" s="30">
+      <c r="K36" s="29">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K37" s="30">
+      <c r="K37" s="29">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K38" s="30">
+      <c r="K38" s="29">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K39" s="30">
+      <c r="K39" s="29">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K40" s="30">
+      <c r="K40" s="29">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K41" s="30">
+      <c r="K41" s="29">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K42" s="30">
+      <c r="K42" s="29">
         <v>39</v>
       </c>
     </row>
     <row r="43" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K43" s="30">
+      <c r="K43" s="29">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K44" s="30">
+      <c r="K44" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K45" s="30" t="str">
+      <c r="K45" s="29" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
       </c>
@@ -6892,18 +6913,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="30" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="30" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="30"/>
-    <col min="5" max="5" width="11.75" style="30" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="30" customWidth="1"/>
-    <col min="7" max="7" width="11" style="30" customWidth="1"/>
-    <col min="8" max="8" width="24.5" style="30" customWidth="1"/>
-    <col min="9" max="9" width="22.25" style="30" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="30" customWidth="1"/>
-    <col min="11" max="11" width="44.5" style="30" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="30"/>
+    <col min="1" max="1" width="21" style="29" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="29" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="29"/>
+    <col min="5" max="5" width="11.75" style="29" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="29" customWidth="1"/>
+    <col min="7" max="7" width="11" style="29" customWidth="1"/>
+    <col min="8" max="8" width="24.5" style="29" customWidth="1"/>
+    <col min="9" max="9" width="22.25" style="29" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="29" customWidth="1"/>
+    <col min="11" max="11" width="44.5" style="29" customWidth="1"/>
+    <col min="12" max="16384" width="10.875" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -6942,512 +6963,512 @@
       <c r="E2" s="111"/>
       <c r="F2" s="111"/>
       <c r="G2" s="111"/>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="48" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50" t="s">
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-    </row>
-    <row r="4" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+    </row>
+    <row r="4" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52" t="s">
+      <c r="G4" s="51"/>
+      <c r="H4" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="J4" s="51"/>
+    </row>
+    <row r="5" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="52" t="s">
+      <c r="G5" s="53"/>
+      <c r="H5" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="J5" s="54"/>
-    </row>
-    <row r="6" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="J5" s="53"/>
+    </row>
+    <row r="6" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="G6" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="J6" s="52" t="s">
+      <c r="J6" s="51" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="51" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+    <row r="7" spans="1:11" s="50" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52" t="s">
+      <c r="G7" s="51"/>
+      <c r="H7" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="J7" s="52"/>
-    </row>
-    <row r="8" spans="1:11" s="51" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
+      <c r="J7" s="51"/>
+    </row>
+    <row r="8" spans="1:11" s="50" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52" t="s">
+      <c r="G8" s="51"/>
+      <c r="H8" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="J8" s="52"/>
-    </row>
-    <row r="9" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="J8" s="51"/>
+    </row>
+    <row r="9" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52" t="s">
+      <c r="G9" s="51"/>
+      <c r="H9" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="I9" s="52" t="s">
+      <c r="I9" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="J9" s="52"/>
-    </row>
-    <row r="10" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
+      <c r="J9" s="51"/>
+    </row>
+    <row r="10" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52" t="s">
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="I10" s="52" t="s">
+      <c r="I10" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="J10" s="52"/>
-    </row>
-    <row r="11" spans="1:11" s="51" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="52" t="s">
+      <c r="J10" s="51"/>
+    </row>
+    <row r="11" spans="1:11" s="50" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52" t="s">
+      <c r="G11" s="51"/>
+      <c r="H11" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="I11" s="52" t="s">
+      <c r="I11" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="J11" s="52"/>
-    </row>
-    <row r="12" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
+      <c r="J11" s="51"/>
+    </row>
+    <row r="12" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52" t="s">
+      <c r="G12" s="51"/>
+      <c r="H12" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="I12" s="52" t="s">
+      <c r="I12" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="J12" s="52"/>
+      <c r="J12" s="51"/>
     </row>
     <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57" t="s">
+      <c r="E13" s="55"/>
+      <c r="F13" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="G13" s="55"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52" t="s">
+      <c r="G13" s="54"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="J13" s="55"/>
-      <c r="K13" s="30" t="s">
+      <c r="J13" s="54"/>
+      <c r="K13" s="29" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="57" t="s">
+      <c r="E14" s="55"/>
+      <c r="F14" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="G14" s="55"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52" t="s">
+      <c r="G14" s="54"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="55"/>
+      <c r="J14" s="54"/>
     </row>
     <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="52" t="s">
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="30" t="s">
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="29" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="53" t="s">
+      <c r="B16" s="56"/>
+      <c r="C16" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="56" t="s">
+      <c r="E16" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="56" t="s">
+      <c r="F16" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="57" t="s">
+      <c r="G16" s="55"/>
+      <c r="H16" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="I16" s="57" t="s">
+      <c r="I16" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="J16" s="56"/>
-      <c r="K16" s="58" t="s">
+      <c r="J16" s="55"/>
+      <c r="K16" s="57" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52" t="s">
+      <c r="B17" s="51"/>
+      <c r="C17" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="52" t="s">
+      <c r="F17" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="59" t="s">
+      <c r="G17" s="51"/>
+      <c r="H17" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="I17" s="59" t="s">
+      <c r="I17" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="J17" s="52"/>
-      <c r="K17" s="60" t="s">
+      <c r="J17" s="51"/>
+      <c r="K17" s="59" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="60" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
     </row>
     <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
     </row>
     <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/fuentes/contenidos/grado06/guion04/SolicitudGrafica_CN_06_04_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion04/SolicitudGrafica_CN_06_04_CO.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="209">
   <si>
     <t>Fecha:</t>
   </si>
@@ -705,6 +705,9 @@
   </si>
   <si>
     <t>Elaborar ilustración a modo de mosaico, incluyendo las imágenes propuestas.</t>
+  </si>
+  <si>
+    <t>Organizar las imágenes con el texto y el formato de esta imagen de referencia:</t>
   </si>
 </sst>
 </file>
@@ -1657,6 +1660,9 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="51" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1740,9 +1746,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -2730,8 +2733,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2769,14 +2772,14 @@
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="F2" s="82" t="s">
+      <c r="D2" s="91"/>
+      <c r="F2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="83"/>
+      <c r="G2" s="84"/>
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="16"/>
@@ -2786,14 +2789,14 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="91">
+      <c r="C3" s="92">
         <v>6</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="F3" s="84">
+      <c r="D3" s="93"/>
+      <c r="F3" s="85">
         <v>42123</v>
       </c>
-      <c r="G3" s="85"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="16"/>
@@ -2803,10 +2806,10 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="D4" s="92"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="5"/>
       <c r="F4" s="46" t="s">
         <v>55</v>
@@ -2824,10 +2827,10 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="94" t="s">
         <v>168</v>
       </c>
-      <c r="D5" s="94"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="5"/>
       <c r="F5" s="44" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2876,12 +2879,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="86" t="s">
+      <c r="F8" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="89"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -2937,7 +2940,7 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>149</v>
@@ -2961,7 +2964,9 @@
       <c r="J10" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="K10" s="78"/>
+      <c r="K10" s="78" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="11" spans="1:16" s="12" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
@@ -2975,7 +2980,7 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>149</v>
@@ -3427,11 +3432,11 @@
       <c r="J22" s="76" t="s">
         <v>193</v>
       </c>
-      <c r="K22" s="113" t="s">
+      <c r="K22" s="82" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" ht="356.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="12" customFormat="1" ht="337.5" x14ac:dyDescent="0.3">
       <c r="A23" s="73" t="s">
         <v>161</v>
       </c>
@@ -6196,25 +6201,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="38"/>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103"/>
       <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -6222,11 +6227,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="38"/>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="39"/>
       <c r="H3" s="29" t="s">
         <v>18</v>
@@ -6277,11 +6282,11 @@
       <c r="C5" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="109" t="str">
+      <c r="D5" s="110" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="110"/>
+      <c r="E5" s="111"/>
       <c r="F5" s="39"/>
       <c r="H5" s="29" t="s">
         <v>22</v>
@@ -6326,12 +6331,12 @@
       <c r="C7" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="95" t="str">
+      <c r="D7" s="96" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="95"/>
-      <c r="F7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="97"/>
       <c r="H7" s="29" t="s">
         <v>24</v>
       </c>
@@ -6425,14 +6430,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="99"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="100"/>
       <c r="I13" s="29" t="s">
         <v>33</v>
       </c>
@@ -6465,12 +6470,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="38"/>
-      <c r="C15" s="100" t="s">
+      <c r="C15" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="103"/>
       <c r="J15" s="29">
         <v>12</v>
       </c>
@@ -6510,12 +6515,12 @@
       <c r="C17" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="103" t="str">
+      <c r="D17" s="104" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="104"/>
-      <c r="F17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="106"/>
       <c r="J17" s="29">
         <v>14</v>
       </c>
@@ -6531,12 +6536,12 @@
       <c r="C18" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="95" t="str">
+      <c r="D18" s="96" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="95"/>
-      <c r="F18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="97"/>
       <c r="J18" s="29">
         <v>15</v>
       </c>
@@ -6928,41 +6933,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="111" t="s">
+      <c r="C1" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="111" t="s">
+      <c r="E1" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="111" t="s">
+      <c r="F1" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="111" t="s">
+      <c r="G1" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="112" t="s">
+      <c r="H1" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
       <c r="H2" s="48" t="s">
         <v>65</v>
       </c>

--- a/fuentes/contenidos/grado06/guion04/SolicitudGrafica_CN_06_04_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion04/SolicitudGrafica_CN_06_04_CO.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8955" tabRatio="500"/>
+    <workbookView xWindow="8480" yWindow="3920" windowWidth="29360" windowHeight="14420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
     <sheet name="Ayuda" sheetId="2" r:id="rId2"/>
     <sheet name="Definición técnica de imagenes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" iterateCount="2" iterateDelta="10"/>
+  <calcPr calcId="140001" iterateCount="2" iterateDelta="10" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -660,25 +660,16 @@
     <t>Hongos</t>
   </si>
   <si>
-    <t>http://recursostic.educacion.es/secundaria/edad/2esobiologia/2quincena7/actividades/estomas.jpg</t>
-  </si>
-  <si>
     <t>Estomas</t>
   </si>
   <si>
     <t>Cloroplastos</t>
   </si>
   <si>
-    <t>http://nuvesa.com.mx/img/diagrama_xilema.png</t>
-  </si>
-  <si>
     <t>Xilema y floema</t>
   </si>
   <si>
     <t>Animal comiendo</t>
-  </si>
-  <si>
-    <t>http://bibliotecadigital.ilce.edu.mx/sites/telesecundaria/tsa03g01v02/imgs/032-06.gif</t>
   </si>
   <si>
     <t>Respiración en peces</t>
@@ -708,6 +699,16 @@
   </si>
   <si>
     <t>Organizar las imágenes con el texto y el formato de esta imagen de referencia:</t>
+  </si>
+  <si>
+    <t>Credito imagen 199771529 Para uso editorial exclusivamente. Queda prohibido el uso de esta imagen para propósitos promocionales o de publicidad. 
+Crédito Editorial: Vipavlenkoff / Shutterstock.com</t>
+  </si>
+  <si>
+    <t>Muestra http://recursostic.educacion.es/secundaria/edad/2esobiologia/2quincena7/actividades/estomas.jpg</t>
+  </si>
+  <si>
+    <t>Muestras http://bibliotecadigital.ilce.edu.mx/sites/telesecundaria/tsa03g01v02/imgs/032-06.gif</t>
   </si>
 </sst>
 </file>
@@ -717,7 +718,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -891,6 +892,11 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Century Gothic"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1143,11 +1149,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1156,7 +1162,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1164,17 +1170,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1184,7 +1190,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1192,12 +1198,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1206,18 +1212,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1247,11 +1253,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1261,10 +1267,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1274,7 +1280,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -1348,16 +1354,16 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1365,23 +1371,23 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1443,7 +1449,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1746,6 +1752,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -1928,14 +1937,14 @@
         </a:ln>
         <a:effectLst/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
             <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -1945,7 +1954,7 @@
               <a:tailEnd/>
             </a14:hiddenLine>
           </a:ext>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
             <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
@@ -2044,14 +2053,14 @@
         </a:ln>
         <a:effectLst/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
             <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -2061,7 +2070,7 @@
               <a:tailEnd/>
             </a14:hiddenLine>
           </a:ext>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
             <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
@@ -2125,13 +2134,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>962025</xdr:rowOff>
+          <xdr:rowOff>965200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>2028825</xdr:colOff>
+          <xdr:colOff>2032000</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>1419225</xdr:rowOff>
+          <xdr:rowOff>1422400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2166,13 +2175,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>2019300</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>962025</xdr:rowOff>
+          <xdr:rowOff>965200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1657350</xdr:colOff>
+          <xdr:colOff>1663700</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>1419225</xdr:rowOff>
+          <xdr:rowOff>1422400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2205,15 +2214,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>962025</xdr:rowOff>
+          <xdr:rowOff>965200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1666875</xdr:colOff>
+          <xdr:colOff>1663700</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>1419225</xdr:rowOff>
+          <xdr:rowOff>1422400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2246,15 +2255,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>962025</xdr:rowOff>
+          <xdr:rowOff>965200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>1666875</xdr:colOff>
+          <xdr:colOff>1663700</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>1419225</xdr:rowOff>
+          <xdr:rowOff>1422400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2289,13 +2298,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>2066925</xdr:colOff>
+          <xdr:colOff>2070100</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>466725</xdr:rowOff>
+          <xdr:rowOff>469900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2328,15 +2337,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>2085975</xdr:colOff>
+          <xdr:colOff>2082800</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1724025</xdr:colOff>
+          <xdr:colOff>1727200</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>466725</xdr:rowOff>
+          <xdr:rowOff>469900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2369,15 +2378,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>466725</xdr:rowOff>
+          <xdr:rowOff>469900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2730,32 +2739,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1"/>
+  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="34.875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="47.25" style="17" customWidth="1"/>
-    <col min="12" max="12" width="20.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="34.83203125" style="17" customWidth="1"/>
+    <col min="11" max="11" width="47.1640625" style="17" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="2" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="10.875" style="2"/>
+    <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2767,7 +2776,7 @@
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.75">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>129</v>
@@ -2784,7 +2793,7 @@
       <c r="I2" s="47"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15.75">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -2801,7 +2810,7 @@
       <c r="I3" s="47"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="16.5">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>54</v>
@@ -2822,7 +2831,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="16.5" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
@@ -2842,7 +2851,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="16.5" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2855,7 +2864,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="31" t="s">
         <v>40</v>
@@ -2873,7 +2882,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" thickBot="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2893,7 +2902,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="26.25" thickBot="1">
       <c r="A9" s="27" t="s">
         <v>2</v>
       </c>
@@ -2928,19 +2937,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="12" customFormat="1" ht="108.75" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>142</v>
       </c>
       <c r="B10" s="77" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C10" s="26" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>149</v>
@@ -2965,10 +2974,10 @@
         <v>170</v>
       </c>
       <c r="K10" s="78" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="12" customFormat="1" ht="146.25" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>148</v>
       </c>
@@ -2980,7 +2989,7 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>149</v>
@@ -3008,7 +3017,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="12" customFormat="1" ht="27">
       <c r="A12" s="73" t="s">
         <v>150</v>
       </c>
@@ -3048,7 +3057,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="12" customFormat="1" ht="40.5">
       <c r="A13" s="73" t="s">
         <v>151</v>
       </c>
@@ -3088,7 +3097,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="15">
       <c r="A14" s="73" t="s">
         <v>152</v>
       </c>
@@ -3126,11 +3135,11 @@
       </c>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="65">
       <c r="A15" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="13" t="s">
         <v>181</v>
       </c>
       <c r="C15" s="26" t="str">
@@ -3162,9 +3171,11 @@
       <c r="J15" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="201" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="114" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="201" customHeight="1">
       <c r="A16" s="73" t="s">
         <v>154</v>
       </c>
@@ -3204,7 +3215,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A17" s="73" t="s">
         <v>155</v>
       </c>
@@ -3242,7 +3253,7 @@
       </c>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="247.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="12" customFormat="1" ht="247.5" customHeight="1">
       <c r="A18" s="73" t="s">
         <v>156</v>
       </c>
@@ -3282,7 +3293,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="111" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="12" customFormat="1" ht="111">
       <c r="A19" s="73" t="s">
         <v>157</v>
       </c>
@@ -3320,7 +3331,7 @@
       </c>
       <c r="K19" s="28"/>
     </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A20" s="73" t="s">
         <v>158</v>
       </c>
@@ -3358,7 +3369,7 @@
       </c>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A21" s="73" t="s">
         <v>159</v>
       </c>
@@ -3396,7 +3407,7 @@
       </c>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" ht="54" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="12" customFormat="1" ht="54">
       <c r="A22" s="73" t="s">
         <v>160</v>
       </c>
@@ -3433,22 +3444,22 @@
         <v>193</v>
       </c>
       <c r="K22" s="82" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" ht="337.5" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="12" customFormat="1" ht="342">
       <c r="A23" s="73" t="s">
         <v>161</v>
       </c>
       <c r="B23" s="81" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C23" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>149</v>
@@ -3473,15 +3484,15 @@
         <v>194</v>
       </c>
       <c r="K23" s="72" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="12" customFormat="1" ht="78.75" customHeight="1">
       <c r="A24" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="B24" s="77" t="s">
-        <v>195</v>
+      <c r="B24" s="77">
+        <v>71038528</v>
       </c>
       <c r="C24" s="26" t="str">
         <f t="shared" si="0"/>
@@ -3510,11 +3521,13 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J24" s="76" t="s">
-        <v>196</v>
-      </c>
-      <c r="K24" s="15"/>
-    </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="12" customFormat="1">
       <c r="A25" s="73" t="s">
         <v>163</v>
       </c>
@@ -3548,16 +3561,16 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J25" s="76" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K25" s="19"/>
     </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A26" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="B26" s="77" t="s">
-        <v>198</v>
+      <c r="B26" s="77">
+        <v>157035056</v>
       </c>
       <c r="C26" s="26" t="str">
         <f t="shared" si="0"/>
@@ -3586,11 +3599,11 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J26" s="76" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A27" s="73" t="s">
         <v>165</v>
       </c>
@@ -3624,16 +3637,16 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J27" s="72" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" s="12" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="12" customFormat="1" ht="40">
       <c r="A28" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="B28" s="77" t="s">
-        <v>201</v>
+      <c r="B28" s="77">
+        <v>121635004</v>
       </c>
       <c r="C28" s="26" t="str">
         <f t="shared" si="0"/>
@@ -3662,11 +3675,13 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J28" s="72" t="s">
-        <v>202</v>
-      </c>
-      <c r="K28" s="72"/>
-    </row>
-    <row r="29" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="12" customFormat="1">
       <c r="A29" s="73"/>
       <c r="B29" s="73"/>
       <c r="C29" s="26"/>
@@ -3691,7 +3706,7 @@
       <c r="J29" s="72"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="12" customFormat="1">
       <c r="A30" s="73"/>
       <c r="B30" s="73"/>
       <c r="C30" s="26"/>
@@ -3716,7 +3731,7 @@
       <c r="J30" s="72"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="12" customFormat="1">
       <c r="A31" s="73"/>
       <c r="B31" s="73"/>
       <c r="C31" s="26"/>
@@ -3741,7 +3756,7 @@
       <c r="J31" s="72"/>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="12" customFormat="1">
       <c r="A32" s="73"/>
       <c r="B32" s="73"/>
       <c r="C32" s="26"/>
@@ -3766,7 +3781,7 @@
       <c r="J32" s="72"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="12" customFormat="1">
       <c r="A33" s="73"/>
       <c r="B33" s="13"/>
       <c r="C33" s="26" t="str">
@@ -3794,7 +3809,7 @@
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A34" s="13" t="str">
         <f t="shared" ref="A34:A83" si="3">IF(OR(B34&lt;&gt;"",J34&lt;&gt;""),CONCATENATE(LEFT(A33,3),IF(MID(A33,4,2)+1&lt;10,CONCATENATE("0",MID(A33,4,2)+1),MID(A33,4,2)+1)),"")</f>
         <v/>
@@ -3825,7 +3840,7 @@
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A35" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3856,7 +3871,7 @@
       <c r="J35" s="14"/>
       <c r="K35" s="15"/>
     </row>
-    <row r="36" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A36" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3887,7 +3902,7 @@
       <c r="J36" s="14"/>
       <c r="K36" s="15"/>
     </row>
-    <row r="37" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A37" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3918,7 +3933,7 @@
       <c r="J37" s="21"/>
       <c r="K37" s="15"/>
     </row>
-    <row r="38" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A38" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3949,7 +3964,7 @@
       <c r="J38" s="22"/>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A39" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3980,7 +3995,7 @@
       <c r="J39" s="14"/>
       <c r="K39" s="15"/>
     </row>
-    <row r="40" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A40" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4011,7 +4026,7 @@
       <c r="J40" s="14"/>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A41" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4042,7 +4057,7 @@
       <c r="J41" s="14"/>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A42" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4073,7 +4088,7 @@
       <c r="J42" s="14"/>
       <c r="K42" s="15"/>
     </row>
-    <row r="43" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A43" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4104,7 +4119,7 @@
       <c r="J43" s="14"/>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A44" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4135,7 +4150,7 @@
       <c r="J44" s="14"/>
       <c r="K44" s="15"/>
     </row>
-    <row r="45" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A45" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4166,7 +4181,7 @@
       <c r="J45" s="14"/>
       <c r="K45" s="15"/>
     </row>
-    <row r="46" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A46" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4197,7 +4212,7 @@
       <c r="J46" s="14"/>
       <c r="K46" s="15"/>
     </row>
-    <row r="47" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A47" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4228,7 +4243,7 @@
       <c r="J47" s="14"/>
       <c r="K47" s="15"/>
     </row>
-    <row r="48" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A48" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4259,7 +4274,7 @@
       <c r="J48" s="14"/>
       <c r="K48" s="15"/>
     </row>
-    <row r="49" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A49" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4290,7 +4305,7 @@
       <c r="J49" s="14"/>
       <c r="K49" s="15"/>
     </row>
-    <row r="50" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A50" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4321,7 +4336,7 @@
       <c r="J50" s="14"/>
       <c r="K50" s="15"/>
     </row>
-    <row r="51" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A51" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4352,7 +4367,7 @@
       <c r="J51" s="14"/>
       <c r="K51" s="15"/>
     </row>
-    <row r="52" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A52" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4383,7 +4398,7 @@
       <c r="J52" s="14"/>
       <c r="K52" s="15"/>
     </row>
-    <row r="53" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A53" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4414,7 +4429,7 @@
       <c r="J53" s="14"/>
       <c r="K53" s="15"/>
     </row>
-    <row r="54" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A54" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4445,7 +4460,7 @@
       <c r="J54" s="14"/>
       <c r="K54" s="15"/>
     </row>
-    <row r="55" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A55" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4476,7 +4491,7 @@
       <c r="J55" s="14"/>
       <c r="K55" s="15"/>
     </row>
-    <row r="56" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A56" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4507,7 +4522,7 @@
       <c r="J56" s="14"/>
       <c r="K56" s="15"/>
     </row>
-    <row r="57" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A57" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4538,7 +4553,7 @@
       <c r="J57" s="14"/>
       <c r="K57" s="15"/>
     </row>
-    <row r="58" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A58" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4569,7 +4584,7 @@
       <c r="J58" s="14"/>
       <c r="K58" s="15"/>
     </row>
-    <row r="59" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A59" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4600,7 +4615,7 @@
       <c r="J59" s="14"/>
       <c r="K59" s="15"/>
     </row>
-    <row r="60" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A60" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4631,7 +4646,7 @@
       <c r="J60" s="14"/>
       <c r="K60" s="15"/>
     </row>
-    <row r="61" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A61" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4662,7 +4677,7 @@
       <c r="J61" s="14"/>
       <c r="K61" s="15"/>
     </row>
-    <row r="62" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A62" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4693,7 +4708,7 @@
       <c r="J62" s="14"/>
       <c r="K62" s="15"/>
     </row>
-    <row r="63" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A63" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4724,7 +4739,7 @@
       <c r="J63" s="14"/>
       <c r="K63" s="15"/>
     </row>
-    <row r="64" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A64" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4755,7 +4770,7 @@
       <c r="J64" s="14"/>
       <c r="K64" s="15"/>
     </row>
-    <row r="65" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A65" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4786,7 +4801,7 @@
       <c r="J65" s="14"/>
       <c r="K65" s="15"/>
     </row>
-    <row r="66" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A66" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4817,7 +4832,7 @@
       <c r="J66" s="14"/>
       <c r="K66" s="15"/>
     </row>
-    <row r="67" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A67" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4848,7 +4863,7 @@
       <c r="J67" s="14"/>
       <c r="K67" s="15"/>
     </row>
-    <row r="68" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A68" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4879,7 +4894,7 @@
       <c r="J68" s="14"/>
       <c r="K68" s="15"/>
     </row>
-    <row r="69" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A69" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4910,7 +4925,7 @@
       <c r="J69" s="14"/>
       <c r="K69" s="15"/>
     </row>
-    <row r="70" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A70" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4941,7 +4956,7 @@
       <c r="J70" s="14"/>
       <c r="K70" s="15"/>
     </row>
-    <row r="71" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A71" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4972,7 +4987,7 @@
       <c r="J71" s="14"/>
       <c r="K71" s="15"/>
     </row>
-    <row r="72" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A72" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5003,7 +5018,7 @@
       <c r="J72" s="14"/>
       <c r="K72" s="15"/>
     </row>
-    <row r="73" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A73" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5034,7 +5049,7 @@
       <c r="J73" s="14"/>
       <c r="K73" s="15"/>
     </row>
-    <row r="74" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A74" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5065,7 +5080,7 @@
       <c r="J74" s="14"/>
       <c r="K74" s="15"/>
     </row>
-    <row r="75" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A75" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5096,7 +5111,7 @@
       <c r="J75" s="14"/>
       <c r="K75" s="15"/>
     </row>
-    <row r="76" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A76" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5127,7 +5142,7 @@
       <c r="J76" s="14"/>
       <c r="K76" s="15"/>
     </row>
-    <row r="77" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A77" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5158,7 +5173,7 @@
       <c r="J77" s="14"/>
       <c r="K77" s="15"/>
     </row>
-    <row r="78" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A78" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5189,7 +5204,7 @@
       <c r="J78" s="14"/>
       <c r="K78" s="15"/>
     </row>
-    <row r="79" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A79" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5220,7 +5235,7 @@
       <c r="J79" s="14"/>
       <c r="K79" s="15"/>
     </row>
-    <row r="80" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A80" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5251,7 +5266,7 @@
       <c r="J80" s="14"/>
       <c r="K80" s="15"/>
     </row>
-    <row r="81" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A81" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5282,7 +5297,7 @@
       <c r="J81" s="14"/>
       <c r="K81" s="15"/>
     </row>
-    <row r="82" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A82" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5313,7 +5328,7 @@
       <c r="J82" s="14"/>
       <c r="K82" s="15"/>
     </row>
-    <row r="83" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A83" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5344,7 +5359,7 @@
       <c r="J83" s="14"/>
       <c r="K83" s="15"/>
     </row>
-    <row r="84" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A84" s="13" t="str">
         <f t="shared" ref="A84:A108" si="7">IF(OR(B84&lt;&gt;"",J84&lt;&gt;""),CONCATENATE(LEFT(A83,3),IF(MID(A83,4,2)+1&lt;10,CONCATENATE("0",MID(A83,4,2)+1),MID(A83,4,2)+1)),"")</f>
         <v/>
@@ -5375,7 +5390,7 @@
       <c r="J84" s="14"/>
       <c r="K84" s="15"/>
     </row>
-    <row r="85" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A85" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5406,7 +5421,7 @@
       <c r="J85" s="14"/>
       <c r="K85" s="15"/>
     </row>
-    <row r="86" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A86" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5437,7 +5452,7 @@
       <c r="J86" s="14"/>
       <c r="K86" s="15"/>
     </row>
-    <row r="87" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A87" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5468,7 +5483,7 @@
       <c r="J87" s="14"/>
       <c r="K87" s="15"/>
     </row>
-    <row r="88" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A88" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5499,7 +5514,7 @@
       <c r="J88" s="14"/>
       <c r="K88" s="15"/>
     </row>
-    <row r="89" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A89" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5530,7 +5545,7 @@
       <c r="J89" s="14"/>
       <c r="K89" s="15"/>
     </row>
-    <row r="90" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A90" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5561,7 +5576,7 @@
       <c r="J90" s="14"/>
       <c r="K90" s="15"/>
     </row>
-    <row r="91" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A91" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5592,7 +5607,7 @@
       <c r="J91" s="14"/>
       <c r="K91" s="15"/>
     </row>
-    <row r="92" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A92" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5623,7 +5638,7 @@
       <c r="J92" s="14"/>
       <c r="K92" s="15"/>
     </row>
-    <row r="93" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A93" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5654,7 +5669,7 @@
       <c r="J93" s="14"/>
       <c r="K93" s="15"/>
     </row>
-    <row r="94" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A94" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5685,7 +5700,7 @@
       <c r="J94" s="14"/>
       <c r="K94" s="15"/>
     </row>
-    <row r="95" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A95" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5716,7 +5731,7 @@
       <c r="J95" s="14"/>
       <c r="K95" s="15"/>
     </row>
-    <row r="96" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A96" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5747,7 +5762,7 @@
       <c r="J96" s="14"/>
       <c r="K96" s="15"/>
     </row>
-    <row r="97" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A97" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5778,7 +5793,7 @@
       <c r="J97" s="14"/>
       <c r="K97" s="15"/>
     </row>
-    <row r="98" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A98" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5809,7 +5824,7 @@
       <c r="J98" s="14"/>
       <c r="K98" s="15"/>
     </row>
-    <row r="99" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A99" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5840,7 +5855,7 @@
       <c r="J99" s="14"/>
       <c r="K99" s="15"/>
     </row>
-    <row r="100" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A100" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5871,7 +5886,7 @@
       <c r="J100" s="14"/>
       <c r="K100" s="15"/>
     </row>
-    <row r="101" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A101" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5902,7 +5917,7 @@
       <c r="J101" s="14"/>
       <c r="K101" s="15"/>
     </row>
-    <row r="102" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A102" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5933,7 +5948,7 @@
       <c r="J102" s="14"/>
       <c r="K102" s="15"/>
     </row>
-    <row r="103" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A103" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5964,7 +5979,7 @@
       <c r="J103" s="14"/>
       <c r="K103" s="15"/>
     </row>
-    <row r="104" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A104" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5995,7 +6010,7 @@
       <c r="J104" s="14"/>
       <c r="K104" s="15"/>
     </row>
-    <row r="105" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A105" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6026,7 +6041,7 @@
       <c r="J105" s="14"/>
       <c r="K105" s="15"/>
     </row>
-    <row r="106" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A106" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6057,7 +6072,7 @@
       <c r="J106" s="14"/>
       <c r="K106" s="15"/>
     </row>
-    <row r="107" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A107" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6088,7 +6103,7 @@
       <c r="J107" s="14"/>
       <c r="K107" s="15"/>
     </row>
-    <row r="108" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A108" s="13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6170,8 +6185,8 @@
     <hyperlink ref="B23" r:id="rId1" display="http://image.slidesharecdn.com/deuteromicetes-130213124457-phpapp02/95/deuteromicetes-1-638.jpg?cb=1360781133"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6182,25 +6197,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2"/>
+  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="72.25" style="29" customWidth="1"/>
-    <col min="2" max="2" width="11" style="29"/>
-    <col min="3" max="3" width="13.875" style="29" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="29" customWidth="1"/>
-    <col min="5" max="7" width="11" style="29"/>
+    <col min="1" max="1" width="72.1640625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="29"/>
+    <col min="3" max="3" width="13.83203125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="29" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" style="29"/>
     <col min="8" max="11" width="11" style="29" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="29"/>
+    <col min="12" max="16384" width="10.83203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1">
       <c r="A1" s="98" t="s">
         <v>38</v>
       </c>
@@ -6210,7 +6225,7 @@
       <c r="E1" s="99"/>
       <c r="F1" s="100"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="37" t="s">
         <v>42</v>
       </c>
@@ -6222,7 +6237,7 @@
       <c r="E2" s="103"/>
       <c r="F2" s="39"/>
     </row>
-    <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="63">
       <c r="A3" s="40" t="s">
         <v>43</v>
       </c>
@@ -6246,7 +6261,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="31.5">
       <c r="A4" s="37" t="s">
         <v>44</v>
       </c>
@@ -6274,7 +6289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="79.5" thickBot="1">
       <c r="A5" s="40" t="s">
         <v>45</v>
       </c>
@@ -6301,7 +6316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="32.25" thickBot="1">
       <c r="A6" s="37" t="s">
         <v>10</v>
       </c>
@@ -6323,7 +6338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="48" thickBot="1">
       <c r="A7" s="40" t="s">
         <v>11</v>
       </c>
@@ -6350,7 +6365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="47.25">
       <c r="A8" s="40" t="s">
         <v>53</v>
       </c>
@@ -6369,7 +6384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="47.25">
       <c r="A9" s="40" t="s">
         <v>12</v>
       </c>
@@ -6388,7 +6403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="32.25" thickBot="1">
       <c r="A10" s="41" t="s">
         <v>36</v>
       </c>
@@ -6407,7 +6422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="I11" s="29" t="s">
         <v>32</v>
       </c>
@@ -6418,7 +6433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="16.5" thickBot="1">
       <c r="I12" s="29" t="s">
         <v>37</v>
       </c>
@@ -6429,7 +6444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="98" t="s">
         <v>41</v>
       </c>
@@ -6448,7 +6463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="16.5" thickBot="1">
       <c r="A14" s="40"/>
       <c r="B14" s="38"/>
       <c r="C14" s="38"/>
@@ -6465,7 +6480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="37" t="s">
         <v>46</v>
       </c>
@@ -6483,7 +6498,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="67.25" customHeight="1">
       <c r="A16" s="40" t="s">
         <v>47</v>
       </c>
@@ -6507,7 +6522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="32" customHeight="1" thickBot="1">
       <c r="A17" s="37" t="s">
         <v>44</v>
       </c>
@@ -6528,7 +6543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="79.5" thickBot="1">
       <c r="A18" s="40" t="s">
         <v>48</v>
       </c>
@@ -6549,7 +6564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="37" t="s">
         <v>10</v>
       </c>
@@ -6568,7 +6583,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="63.75" thickBot="1">
       <c r="A20" s="41" t="s">
         <v>51</v>
       </c>
@@ -6590,7 +6605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="H21" s="29" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
@@ -6607,122 +6622,122 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="K22" s="29">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="K23" s="29">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="K24" s="29">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="K25" s="29">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="K26" s="29">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="K27" s="29">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="K28" s="29">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="K29" s="29">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="K30" s="29">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="K31" s="29">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="K32" s="29">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="11:11">
       <c r="K33" s="29">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="11:11">
       <c r="K34" s="29">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="11:11">
       <c r="K35" s="29">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="11:11">
       <c r="K36" s="29">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="11:11">
       <c r="K37" s="29">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="11:11">
       <c r="K38" s="29">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="11:11">
       <c r="K39" s="29">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="11:11">
       <c r="K40" s="29">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="11:11">
       <c r="K41" s="29">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="11:11">
       <c r="K42" s="29">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="11:11">
       <c r="K43" s="29">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="11:11">
       <c r="K44" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="11:11">
       <c r="K45" s="29" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
@@ -6741,169 +6756,182 @@
     <mergeCell ref="D7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId4" name="Drop Down 6">
+            <control shapeId="1030" r:id="rId3" name="Drop Down 6">
               <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>962025</xdr:rowOff>
+                    <xdr:rowOff>965200</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>2028825</xdr:colOff>
+                    <xdr:colOff>2032000</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>1419225</xdr:rowOff>
+                    <xdr:rowOff>1422400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId5" name="Drop Down 7">
+            <control shapeId="1031" r:id="rId4" name="Drop Down 7">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>2019300</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>962025</xdr:rowOff>
+                    <xdr:rowOff>965200</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>1657350</xdr:colOff>
+                    <xdr:colOff>1663700</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>1419225</xdr:rowOff>
+                    <xdr:rowOff>1422400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1032" r:id="rId6" name="Drop Down 8">
+            <control shapeId="1032" r:id="rId5" name="Drop Down 8">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>962025</xdr:rowOff>
+                    <xdr:rowOff>965200</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>1666875</xdr:colOff>
+                    <xdr:colOff>1663700</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>1419225</xdr:rowOff>
+                    <xdr:rowOff>1422400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId7" name="Drop Down 11">
+            <control shapeId="1035" r:id="rId6" name="Drop Down 11">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>962025</xdr:rowOff>
+                    <xdr:rowOff>965200</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1666875</xdr:colOff>
+                    <xdr:colOff>1663700</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>1419225</xdr:rowOff>
+                    <xdr:rowOff>1422400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId8" name="Drop Down 2">
+            <control shapeId="1026" r:id="rId7" name="Drop Down 2">
               <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>2066925</xdr:colOff>
+                    <xdr:colOff>2070100</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>466725</xdr:rowOff>
+                    <xdr:rowOff>469900</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1028" r:id="rId9" name="Drop Down 4">
+            <control shapeId="1028" r:id="rId8" name="Drop Down 4">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>2085975</xdr:colOff>
+                    <xdr:colOff>2082800</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>1724025</xdr:colOff>
+                    <xdr:colOff>1727200</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>466725</xdr:rowOff>
+                    <xdr:rowOff>469900</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1029" r:id="rId10" name="Drop Down 5">
+            <control shapeId="1029" r:id="rId9" name="Drop Down 5">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>466725</xdr:rowOff>
+                    <xdr:rowOff>469900</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
+    <mc:Fallback/>
   </mc:AlternateContent>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6916,23 +6944,23 @@
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21" style="29" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="29" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="29" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="29"/>
-    <col min="5" max="5" width="11.75" style="29" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="29" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="29"/>
+    <col min="5" max="5" width="11.6640625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="29" customWidth="1"/>
     <col min="7" max="7" width="11" style="29" customWidth="1"/>
     <col min="8" max="8" width="24.5" style="29" customWidth="1"/>
-    <col min="9" max="9" width="22.25" style="29" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="29" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" style="29" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="29" customWidth="1"/>
     <col min="11" max="11" width="44.5" style="29" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="29"/>
+    <col min="12" max="16384" width="10.83203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="112" t="s">
         <v>56</v>
       </c>
@@ -6960,7 +6988,7 @@
       <c r="I1" s="113"/>
       <c r="J1" s="113"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="112"/>
       <c r="B2" s="112"/>
       <c r="C2" s="112"/>
@@ -6978,7 +7006,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="50" customFormat="1">
       <c r="A3" s="49" t="s">
         <v>69</v>
       </c>
@@ -7002,7 +7030,7 @@
       <c r="I3" s="49"/>
       <c r="J3" s="49"/>
     </row>
-    <row r="4" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="50" customFormat="1">
       <c r="A4" s="51" t="s">
         <v>57</v>
       </c>
@@ -7030,7 +7058,7 @@
       </c>
       <c r="J4" s="51"/>
     </row>
-    <row r="5" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="50" customFormat="1">
       <c r="A5" s="52" t="s">
         <v>77</v>
       </c>
@@ -7058,7 +7086,7 @@
       </c>
       <c r="J5" s="53"/>
     </row>
-    <row r="6" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="50" customFormat="1">
       <c r="A6" s="51" t="s">
         <v>58</v>
       </c>
@@ -7090,7 +7118,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="50" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="50" customFormat="1" ht="25.5">
       <c r="A7" s="51" t="s">
         <v>80</v>
       </c>
@@ -7118,7 +7146,7 @@
       </c>
       <c r="J7" s="51"/>
     </row>
-    <row r="8" spans="1:11" s="50" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="50" customFormat="1" ht="25.5">
       <c r="A8" s="51" t="s">
         <v>82</v>
       </c>
@@ -7146,7 +7174,7 @@
       </c>
       <c r="J8" s="51"/>
     </row>
-    <row r="9" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="50" customFormat="1">
       <c r="A9" s="51" t="s">
         <v>84</v>
       </c>
@@ -7174,7 +7202,7 @@
       </c>
       <c r="J9" s="51"/>
     </row>
-    <row r="10" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="50" customFormat="1">
       <c r="A10" s="51" t="s">
         <v>86</v>
       </c>
@@ -7200,7 +7228,7 @@
       </c>
       <c r="J10" s="51"/>
     </row>
-    <row r="11" spans="1:11" s="50" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="50" customFormat="1" ht="25.5">
       <c r="A11" s="51" t="s">
         <v>89</v>
       </c>
@@ -7228,7 +7256,7 @@
       </c>
       <c r="J11" s="51"/>
     </row>
-    <row r="12" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="50" customFormat="1">
       <c r="A12" s="51" t="s">
         <v>91</v>
       </c>
@@ -7256,7 +7284,7 @@
       </c>
       <c r="J12" s="51"/>
     </row>
-    <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="63">
       <c r="A13" s="54" t="s">
         <v>93</v>
       </c>
@@ -7283,7 +7311,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="54" t="s">
         <v>97</v>
       </c>
@@ -7307,7 +7335,7 @@
       </c>
       <c r="J14" s="54"/>
     </row>
-    <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="31.5">
       <c r="A15" s="54" t="s">
         <v>99</v>
       </c>
@@ -7334,7 +7362,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="94.5">
       <c r="A16" s="56" t="s">
         <v>103</v>
       </c>
@@ -7363,7 +7391,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="25.5">
       <c r="A17" s="51" t="s">
         <v>106</v>
       </c>
@@ -7392,12 +7420,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="60" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="61" t="s">
         <v>113</v>
       </c>
@@ -7410,7 +7438,7 @@
       <c r="D21" s="62"/>
       <c r="E21" s="62"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="64" t="s">
         <v>114</v>
       </c>
@@ -7423,7 +7451,7 @@
       <c r="D22" s="65"/>
       <c r="E22" s="65"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="64" t="s">
         <v>115</v>
       </c>
@@ -7436,7 +7464,7 @@
       <c r="D23" s="65"/>
       <c r="E23" s="65"/>
     </row>
-    <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="31.5">
       <c r="A24" s="64" t="s">
         <v>116</v>
       </c>
@@ -7449,7 +7477,7 @@
       <c r="D24" s="65"/>
       <c r="E24" s="65"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="64" t="s">
         <v>117</v>
       </c>
@@ -7462,7 +7490,7 @@
       <c r="D25" s="65"/>
       <c r="E25" s="65"/>
     </row>
-    <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="63">
       <c r="A26" s="64" t="s">
         <v>118</v>
       </c>
@@ -7488,5 +7516,10 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>